--- a/Practical3/solution/analysis/findings.xlsx
+++ b/Practical3/solution/analysis/findings.xlsx
@@ -114,8 +114,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -126,9 +130,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -469,554 +477,552 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0.87</v>
       </c>
       <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
         <v>9.1408644193199991E-3</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.3</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="H5">
-        <v>0.83579999999999999</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="I5">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="J5">
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>0.87</v>
       </c>
       <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
         <v>9.6692380851699997E-3</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>0.3</v>
       </c>
       <c r="G6">
-        <v>0.3</v>
+        <v>0.84340000000000004</v>
       </c>
       <c r="H6">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.85750000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>0.87</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>9.2465391524899996E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
         <v>0.84340000000000004</v>
       </c>
-      <c r="I6">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="J6">
-        <v>0.85750000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>0.87</v>
-      </c>
-      <c r="B7">
-        <v>9.2465391524899996E-3</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.3</v>
-      </c>
       <c r="H7">
-        <v>0.84340000000000004</v>
+        <v>0.83040000000000003</v>
       </c>
       <c r="I7">
-        <v>0.83040000000000003</v>
-      </c>
-      <c r="J7">
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>0.87</v>
       </c>
       <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
         <v>9.35221388566E-3</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>0.3</v>
       </c>
       <c r="G8">
-        <v>0.3</v>
+        <v>0.87370000000000003</v>
       </c>
       <c r="H8">
-        <v>0.87370000000000003</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="I8">
-        <v>0.83909999999999996</v>
-      </c>
-      <c r="J8">
         <v>0.84989999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>0.87</v>
       </c>
       <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
         <v>8.9295149529699993E-3</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>0.3</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.84989999999999999</v>
       </c>
       <c r="H9">
-        <v>0.84989999999999999</v>
+        <v>0.80669999999999997</v>
       </c>
       <c r="I9">
-        <v>0.80669999999999997</v>
-      </c>
-      <c r="J9">
         <v>0.84130000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>0.87</v>
       </c>
       <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
         <v>9.9072679717799993E-3</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>0.2</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0.8528</v>
       </c>
       <c r="H10">
-        <v>0.8528</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="I10">
-        <v>0.82689999999999997</v>
-      </c>
-      <c r="J10">
         <v>0.84950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>0.87</v>
       </c>
       <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
         <v>9.6694935404599992E-3</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="H11">
-        <v>0.85919999999999996</v>
+        <v>0.82850000000000001</v>
       </c>
       <c r="I11">
-        <v>0.82850000000000001</v>
-      </c>
-      <c r="J11">
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>0.87</v>
       </c>
       <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
         <v>8.7976539589399994E-3</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>0.2</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.84628000000000003</v>
       </c>
       <c r="H12">
-        <v>0.84628000000000003</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="I12">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="J12">
         <v>0.83979999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>0.87</v>
       </c>
       <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
         <v>7.9258143774300002E-3</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>0.2</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.85760000000000003</v>
       </c>
       <c r="H13">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="I13">
+        <v>0.83660000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>0.87</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>9.9072679717799993E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="H14">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.83979999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>0.87</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>9.5102234902500003E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>0.89</v>
+      </c>
+      <c r="H15">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="I15">
+        <v>0.87060000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>0.87</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>8.5592011412300006E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.85109999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>0.87</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>1.01442383896E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
         <v>0.85760000000000003</v>
       </c>
-      <c r="I13">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="J13">
-        <v>0.83660000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>0.87</v>
-      </c>
-      <c r="B14">
-        <v>9.9072679717799993E-3</v>
-      </c>
-      <c r="C14">
-        <v>0.2</v>
-      </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
-      <c r="H14">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="I14">
-        <v>0.83660000000000001</v>
-      </c>
-      <c r="J14">
-        <v>0.83979999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>0.87</v>
-      </c>
-      <c r="B15">
-        <v>9.5102234902500003E-3</v>
-      </c>
-      <c r="C15">
-        <v>0.1</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>0.89</v>
-      </c>
-      <c r="I15">
+      <c r="H17">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="I17">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>0.87</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>7.9251862418799994E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0.85436999999999996</v>
+      </c>
+      <c r="H18">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>0.87</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>7.4496750673599997E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
         <v>0.83819999999999995</v>
       </c>
-      <c r="J15">
-        <v>0.87060000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>0.87</v>
-      </c>
-      <c r="B16">
-        <v>8.5592011412300006E-3</v>
-      </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.84470000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.81879999999999997</v>
-      </c>
-      <c r="J16">
-        <v>0.85109999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>0.87</v>
-      </c>
-      <c r="B17">
-        <v>1.01442383896E-2</v>
-      </c>
-      <c r="C17">
-        <v>0.1</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.85760000000000003</v>
-      </c>
-      <c r="I17">
-        <v>0.82520000000000004</v>
-      </c>
-      <c r="J17">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>0.87</v>
-      </c>
-      <c r="B18">
-        <v>7.9251862418799994E-3</v>
-      </c>
-      <c r="C18">
-        <v>0.1</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.85436999999999996</v>
-      </c>
-      <c r="I18">
-        <v>0.83169999999999999</v>
-      </c>
-      <c r="J18">
-        <v>0.84789999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>0.87</v>
-      </c>
-      <c r="B19">
-        <v>7.4496750673599997E-3</v>
-      </c>
-      <c r="C19">
-        <v>0.1</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
       <c r="H19">
-        <v>0.83819999999999995</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="I19">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="J19">
         <v>0.75729999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>0.85</v>
       </c>
       <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
         <v>1.1095846983E-2</v>
       </c>
-      <c r="C20">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>0.85</v>
       </c>
       <c r="B21">
+        <v>0.3</v>
+      </c>
+      <c r="C21">
         <v>1.15713832823E-2</v>
       </c>
-      <c r="C21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>0.85</v>
       </c>
       <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
         <v>1.16770580154E-2</v>
       </c>
-      <c r="C22">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>0.85</v>
       </c>
       <c r="B23">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
         <v>1.01447743844E-2</v>
       </c>
-      <c r="C23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>0.85</v>
       </c>
       <c r="B24">
+        <v>0.3</v>
+      </c>
+      <c r="C24">
         <v>1.12543590827E-2</v>
       </c>
-      <c r="C24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>0.85</v>
       </c>
       <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25">
         <v>1.01450424031E-2</v>
       </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>0.85</v>
       </c>
       <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
         <v>9.6694935404599992E-3</v>
       </c>
-      <c r="C26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>0.85</v>
       </c>
       <c r="B27">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
         <v>1.0858365697099999E-2</v>
       </c>
-      <c r="C27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>0.85</v>
       </c>
       <c r="B28">
+        <v>0.2</v>
+      </c>
+      <c r="C28">
         <v>9.8280098280099995E-3</v>
       </c>
-      <c r="C28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>0.85</v>
       </c>
       <c r="B29">
+        <v>0.2</v>
+      </c>
+      <c r="C29">
         <v>1.1730205278599999E-2</v>
       </c>
-      <c r="C29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>0.85</v>
       </c>
       <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30">
         <v>1.3631320335999999E-2</v>
       </c>
-      <c r="C30">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>0.85</v>
       </c>
       <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31">
         <v>1.42653352354E-2</v>
       </c>
-      <c r="C31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>0.85</v>
       </c>
       <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="C32">
         <v>1.4423838960200001E-2</v>
-      </c>
-      <c r="C32">
-        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1024,10 +1030,10 @@
         <v>0.85</v>
       </c>
       <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33">
         <v>1.2521794262200001E-2</v>
-      </c>
-      <c r="C33">
-        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1035,10 +1041,10 @@
         <v>0.85</v>
       </c>
       <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
         <v>9.8272309399299995E-3</v>
-      </c>
-      <c r="C34">
-        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1046,10 +1052,10 @@
         <v>0.8</v>
       </c>
       <c r="B35">
+        <v>0.3</v>
+      </c>
+      <c r="C35">
         <v>1.5851209975700001E-2</v>
-      </c>
-      <c r="C35">
-        <v>0.3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1057,10 +1063,10 @@
         <v>0.8</v>
       </c>
       <c r="B36">
+        <v>0.3</v>
+      </c>
+      <c r="C36">
         <v>1.8176054105500002E-2</v>
-      </c>
-      <c r="C36">
-        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1068,10 +1074,10 @@
         <v>0.8</v>
       </c>
       <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="C37">
         <v>1.6326746275000002E-2</v>
-      </c>
-      <c r="C37">
-        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1079,10 +1085,10 @@
         <v>0.8</v>
       </c>
       <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
         <v>1.8493078305000001E-2</v>
-      </c>
-      <c r="C38">
-        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1090,10 +1096,10 @@
         <v>0.8</v>
       </c>
       <c r="B39">
+        <v>0.3</v>
+      </c>
+      <c r="C39">
         <v>1.70136320406E-2</v>
-      </c>
-      <c r="C39">
-        <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1101,10 +1107,10 @@
         <v>0.8</v>
       </c>
       <c r="B40">
+        <v>0.2</v>
+      </c>
+      <c r="C40">
         <v>1.7040500911500001E-2</v>
-      </c>
-      <c r="C40">
-        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1112,10 +1118,10 @@
         <v>0.8</v>
       </c>
       <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
         <v>1.7516049774100002E-2</v>
-      </c>
-      <c r="C41">
-        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1123,10 +1129,10 @@
         <v>0.8</v>
       </c>
       <c r="B42">
+        <v>0.2</v>
+      </c>
+      <c r="C42">
         <v>1.75953079179E-2</v>
-      </c>
-      <c r="C42">
-        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1134,10 +1140,10 @@
         <v>0.8</v>
       </c>
       <c r="B43">
+        <v>0.2</v>
+      </c>
+      <c r="C43">
         <v>1.6802726480099998E-2</v>
-      </c>
-      <c r="C43">
-        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1145,10 +1151,10 @@
         <v>0.8</v>
       </c>
       <c r="B44">
+        <v>0.2</v>
+      </c>
+      <c r="C44">
         <v>1.58516287549E-2</v>
-      </c>
-      <c r="C44">
-        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1156,10 +1162,10 @@
         <v>0.8</v>
       </c>
       <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
         <v>1.7593913457E-2</v>
-      </c>
-      <c r="C45">
-        <v>0.1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1167,10 +1173,10 @@
         <v>0.8</v>
       </c>
       <c r="B46">
+        <v>0.1</v>
+      </c>
+      <c r="C46">
         <v>1.5533365034099999E-2</v>
-      </c>
-      <c r="C46">
-        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1178,10 +1184,10 @@
         <v>0.8</v>
       </c>
       <c r="B47">
+        <v>0.1</v>
+      </c>
+      <c r="C47">
         <v>1.4423838960200001E-2</v>
-      </c>
-      <c r="C47">
-        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1189,10 +1195,10 @@
         <v>0.8</v>
       </c>
       <c r="B48">
+        <v>0.1</v>
+      </c>
+      <c r="C48">
         <v>1.5850372483800002E-2</v>
-      </c>
-      <c r="C48">
-        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1200,15 +1206,15 @@
         <v>0.8</v>
       </c>
       <c r="B49">
+        <v>0.1</v>
+      </c>
+      <c r="C49">
         <v>1.8069424631499999E-2</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Practical3/solution/analysis/findings.xlsx
+++ b/Practical3/solution/analysis/findings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29980" windowHeight="21500" tabRatio="500"/>
+    <workbookView xWindow="-500" yWindow="2900" windowWidth="29980" windowHeight="21500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Trust - LR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Model:</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Classifier</t>
-  </si>
-  <si>
-    <t>Logistic Regresss</t>
   </si>
   <si>
     <t>Error</t>
@@ -58,6 +55,21 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Predict Prob</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>In summary: when kNN's confidence is &gt; .8, it is almost always accurate</t>
+  </si>
+  <si>
+    <t>when using the systemcall model, LR is more accurate. Set threshold &gt; 0.87</t>
   </si>
 </sst>
 </file>
@@ -114,8 +126,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -130,13 +146,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -477,67 +497,109 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>0.87</v>
       </c>
@@ -547,20 +609,47 @@
       <c r="C5">
         <v>9.1408644193199991E-3</v>
       </c>
-      <c r="F5">
-        <v>0.3</v>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>6.2E-2</v>
       </c>
       <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
         <v>0.83579999999999999</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.79039999999999999</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.2000000000000002E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5">
+        <v>0.3</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <v>0.121</v>
+      </c>
+      <c r="O5">
+        <v>0.8</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>0.87</v>
       </c>
@@ -570,20 +659,47 @@
       <c r="C6">
         <v>9.6692380851699997E-3</v>
       </c>
-      <c r="F6">
-        <v>0.3</v>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
       </c>
       <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6">
         <v>0.84340000000000004</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.82069999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.85750000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.8</v>
+      </c>
+      <c r="P6">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.6</v>
+      </c>
+      <c r="R6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>0.87</v>
       </c>
@@ -593,20 +709,47 @@
       <c r="C7">
         <v>9.2465391524899996E-3</v>
       </c>
-      <c r="F7">
-        <v>0.3</v>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
         <v>0.84340000000000004</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.83040000000000003</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5.3400000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
+        <v>0.104</v>
+      </c>
+      <c r="O7">
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.6</v>
+      </c>
+      <c r="R7">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>0.87</v>
       </c>
@@ -616,20 +759,41 @@
       <c r="C8">
         <v>9.35221388566E-3</v>
       </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
       <c r="G8">
+        <v>0.3</v>
+      </c>
+      <c r="H8">
         <v>0.87370000000000003</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.83909999999999996</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.84989999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+      <c r="M8">
+        <v>0.4</v>
+      </c>
+      <c r="N8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.8</v>
+      </c>
+      <c r="P8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>0.87</v>
       </c>
@@ -639,20 +803,41 @@
       <c r="C9">
         <v>8.9295149529699993E-3</v>
       </c>
-      <c r="F9">
-        <v>0.3</v>
-      </c>
       <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
         <v>0.84989999999999999</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.80669999999999997</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.84130000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>0.4</v>
+      </c>
+      <c r="N9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.8</v>
+      </c>
+      <c r="P9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.6</v>
+      </c>
+      <c r="R9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>0.87</v>
       </c>
@@ -662,20 +847,47 @@
       <c r="C10">
         <v>9.9072679717799993E-3</v>
       </c>
-      <c r="F10">
-        <v>0.2</v>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
         <v>0.8528</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.82689999999999997</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.84950000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>0.4</v>
+      </c>
+      <c r="N10">
+        <v>0.129</v>
+      </c>
+      <c r="O10">
+        <v>0.8</v>
+      </c>
+      <c r="P10">
+        <v>2.75E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.6</v>
+      </c>
+      <c r="R10">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>0.87</v>
       </c>
@@ -685,20 +897,47 @@
       <c r="C11">
         <v>9.6694935404599992E-3</v>
       </c>
-      <c r="F11">
-        <v>0.2</v>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
         <v>0.85919999999999996</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.82850000000000001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.1299999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <v>0.4</v>
+      </c>
+      <c r="N11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.8</v>
+      </c>
+      <c r="P11">
+        <v>1.77E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.6</v>
+      </c>
+      <c r="R11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>0.87</v>
       </c>
@@ -708,20 +947,47 @@
       <c r="C12">
         <v>8.7976539589399994E-3</v>
       </c>
-      <c r="F12">
-        <v>0.2</v>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
         <v>0.84628000000000003</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.81389999999999996</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.83979999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12">
+        <v>0.2</v>
+      </c>
+      <c r="M12">
+        <v>0.4</v>
+      </c>
+      <c r="N12">
+        <v>0.105</v>
+      </c>
+      <c r="O12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.6</v>
+      </c>
+      <c r="R12">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>0.87</v>
       </c>
@@ -731,20 +997,41 @@
       <c r="C13">
         <v>7.9258143774300002E-3</v>
       </c>
-      <c r="F13">
-        <v>0.2</v>
-      </c>
       <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.85429999999999995</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.83660000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13">
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <v>0.4</v>
+      </c>
+      <c r="N13">
+        <v>0.106</v>
+      </c>
+      <c r="O13">
+        <v>0.8</v>
+      </c>
+      <c r="P13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.6</v>
+      </c>
+      <c r="R13">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>0.87</v>
       </c>
@@ -754,20 +1041,41 @@
       <c r="C14">
         <v>9.9072679717799993E-3</v>
       </c>
-      <c r="F14">
-        <v>0.2</v>
-      </c>
       <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
         <v>0.85440000000000005</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.83660000000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.83979999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14">
+        <v>0.2</v>
+      </c>
+      <c r="M14">
+        <v>0.4</v>
+      </c>
+      <c r="N14">
+        <v>0.105</v>
+      </c>
+      <c r="O14">
+        <v>0.8</v>
+      </c>
+      <c r="P14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.6</v>
+      </c>
+      <c r="R14">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>0.87</v>
       </c>
@@ -777,20 +1085,47 @@
       <c r="C15">
         <v>9.5102234902500003E-3</v>
       </c>
-      <c r="F15">
-        <v>0.1</v>
+      <c r="D15">
+        <v>0.6</v>
+      </c>
+      <c r="E15">
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
         <v>0.89</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.83819999999999995</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.87060000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.4</v>
+      </c>
+      <c r="N15">
+        <v>0.129</v>
+      </c>
+      <c r="O15">
+        <v>0.8</v>
+      </c>
+      <c r="P15">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.6</v>
+      </c>
+      <c r="R15">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>0.87</v>
       </c>
@@ -800,20 +1135,47 @@
       <c r="C16">
         <v>8.5592011412300006E-3</v>
       </c>
-      <c r="F16">
-        <v>0.1</v>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
+      <c r="E16">
+        <v>0.48499999999999999</v>
       </c>
       <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
         <v>0.84470000000000001</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.81879999999999997</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.85109999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16">
+        <v>0.1</v>
+      </c>
+      <c r="M16">
+        <v>0.4</v>
+      </c>
+      <c r="N16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.8</v>
+      </c>
+      <c r="P16">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="Q16">
+        <v>0.6</v>
+      </c>
+      <c r="R16">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>0.87</v>
       </c>
@@ -823,20 +1185,47 @@
       <c r="C17">
         <v>1.01442383896E-2</v>
       </c>
-      <c r="F17">
-        <v>0.1</v>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.82520000000000004</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="M17">
+        <v>0.4</v>
+      </c>
+      <c r="N17">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.8</v>
+      </c>
+      <c r="P17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.6</v>
+      </c>
+      <c r="R17">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>0.87</v>
       </c>
@@ -846,20 +1235,41 @@
       <c r="C18">
         <v>7.9251862418799994E-3</v>
       </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
       <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
         <v>0.85436999999999996</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.83169999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.84789999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="M18">
+        <v>0.4</v>
+      </c>
+      <c r="N18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.8</v>
+      </c>
+      <c r="P18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.6</v>
+      </c>
+      <c r="R18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>0.87</v>
       </c>
@@ -869,20 +1279,41 @@
       <c r="C19">
         <v>7.4496750673599997E-3</v>
       </c>
-      <c r="F19">
-        <v>0.1</v>
-      </c>
       <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
         <v>0.83819999999999995</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.80259999999999998</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.75729999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0.4</v>
+      </c>
+      <c r="N19">
+        <v>0.113</v>
+      </c>
+      <c r="O19">
+        <v>0.8</v>
+      </c>
+      <c r="P19">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.6</v>
+      </c>
+      <c r="R19">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>0.85</v>
       </c>
@@ -892,8 +1323,17 @@
       <c r="C20">
         <v>1.1095846983E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>0.85</v>
       </c>
@@ -903,8 +1343,17 @@
       <c r="C21">
         <v>1.15713832823E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>0.85</v>
       </c>
@@ -914,8 +1363,17 @@
       <c r="C22">
         <v>1.16770580154E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>0.5</v>
+      </c>
+      <c r="N22">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>0.85</v>
       </c>
@@ -925,8 +1383,17 @@
       <c r="C23">
         <v>1.01447743844E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="L23">
+        <v>0.2</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>0.85</v>
       </c>
@@ -936,8 +1403,17 @@
       <c r="C24">
         <v>1.12543590827E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="L24">
+        <v>0.2</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
+      </c>
+      <c r="N24">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>0.85</v>
       </c>
@@ -947,8 +1423,17 @@
       <c r="C25">
         <v>1.01450424031E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25">
+        <v>0.2</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
+      </c>
+      <c r="N25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>0.85</v>
       </c>
@@ -958,8 +1443,17 @@
       <c r="C26">
         <v>9.6694935404599992E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26">
+        <v>0.1</v>
+      </c>
+      <c r="M26">
+        <v>0.5</v>
+      </c>
+      <c r="N26">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>0.85</v>
       </c>
@@ -969,8 +1463,17 @@
       <c r="C27">
         <v>1.0858365697099999E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="L27">
+        <v>0.1</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>0.85</v>
       </c>
@@ -980,8 +1483,17 @@
       <c r="C28">
         <v>9.8280098280099995E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>0.85</v>
       </c>
@@ -992,7 +1504,7 @@
         <v>1.1730205278599999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>0.85</v>
       </c>
@@ -1003,7 +1515,7 @@
         <v>1.3631320335999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>0.85</v>
       </c>
@@ -1014,7 +1526,7 @@
         <v>1.42653352354E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>0.85</v>
       </c>
@@ -1025,7 +1537,7 @@
         <v>1.4423838960200001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>0.85</v>
       </c>
@@ -1035,8 +1547,11 @@
       <c r="C33">
         <v>1.2521794262200001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="M33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>0.85</v>
       </c>
@@ -1046,8 +1561,11 @@
       <c r="C34">
         <v>9.8272309399299995E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>0.8</v>
       </c>
@@ -1058,7 +1576,7 @@
         <v>1.5851209975700001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>0.8</v>
       </c>
@@ -1069,7 +1587,7 @@
         <v>1.8176054105500002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>0.8</v>
       </c>
@@ -1080,7 +1598,7 @@
         <v>1.6326746275000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>0.8</v>
       </c>
@@ -1091,7 +1609,7 @@
         <v>1.8493078305000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>0.8</v>
       </c>
@@ -1102,7 +1620,7 @@
         <v>1.70136320406E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>0.8</v>
       </c>
@@ -1113,7 +1631,7 @@
         <v>1.7040500911500001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>0.8</v>
       </c>
@@ -1124,7 +1642,7 @@
         <v>1.7516049774100002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>0.8</v>
       </c>
@@ -1135,7 +1653,7 @@
         <v>1.75953079179E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>0.8</v>
       </c>
@@ -1146,7 +1664,7 @@
         <v>1.6802726480099998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>0.8</v>
       </c>
@@ -1157,7 +1675,7 @@
         <v>1.58516287549E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>0.8</v>
       </c>
@@ -1168,7 +1686,7 @@
         <v>1.7593913457E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>0.8</v>
       </c>
@@ -1179,7 +1697,7 @@
         <v>1.5533365034099999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>0.8</v>
       </c>
@@ -1190,7 +1708,7 @@
         <v>1.4423838960200001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>0.8</v>
       </c>
@@ -1214,7 +1732,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Practical3/solution/analysis/findings.xlsx
+++ b/Practical3/solution/analysis/findings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="2900" windowWidth="29980" windowHeight="21500" tabRatio="500"/>
+    <workbookView xWindow="3300" yWindow="860" windowWidth="40700" windowHeight="27000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Trust - LR" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Model:</t>
   </si>
@@ -126,8 +126,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -146,22 +188,702 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30% CV</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>_x0004_GBRT</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trust - LR'!$H$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.84924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.511448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>20% CV</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>_x0004_GBRT</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trust - LR'!$H$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.854056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10% CV</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>_x0004_GBRT</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trust - LR'!$H$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.856974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2092394488"/>
+        <c:axId val="-2092025048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092394488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092025048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092025048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092394488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trust - LR'!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trust - LR'!$M$5:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trust - LR'!$N$5:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trust - LR'!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trust - LR'!$O$5:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trust - LR'!$P$5:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0064</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2092803672"/>
+        <c:axId val="-2092947800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2092803672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092947800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2092947800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092803672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:effectLst>
+      <a:softEdge rad="254000"/>
+    </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT prst="relaxedInset"/>
+    </a:sp3d>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,7 +1219,7 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -549,7 +1271,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,7 +1321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>0.87</v>
       </c>
@@ -649,7 +1371,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>0.87</v>
       </c>
@@ -699,7 +1421,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>0.87</v>
       </c>
@@ -749,7 +1471,7 @@
         <v>0.17199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>0.87</v>
       </c>
@@ -793,7 +1515,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>0.87</v>
       </c>
@@ -836,8 +1558,12 @@
       <c r="R9">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="U9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>0.87</v>
       </c>
@@ -853,17 +1579,14 @@
       <c r="E10">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="G10">
-        <v>0.2</v>
-      </c>
-      <c r="H10">
-        <v>0.8528</v>
-      </c>
-      <c r="I10">
-        <v>0.82689999999999997</v>
-      </c>
-      <c r="J10">
-        <v>0.84950000000000003</v>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="L10">
         <v>0.2</v>
@@ -886,8 +1609,17 @@
       <c r="R10">
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="U10">
+        <v>0.8</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>0.87</v>
       </c>
@@ -903,17 +1635,17 @@
       <c r="E11">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
       <c r="H11">
-        <v>0.85919999999999996</v>
+        <f>AVERAGE(H5:H9)</f>
+        <v>0.84923999999999999</v>
       </c>
       <c r="I11">
-        <v>0.82850000000000001</v>
+        <f t="shared" ref="I11:J11" si="0">AVERAGE(I5:I9)</f>
+        <v>0.81745999999999996</v>
       </c>
       <c r="J11">
-        <v>1.1299999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.51144800000000001</v>
       </c>
       <c r="L11">
         <v>0.2</v>
@@ -936,8 +1668,17 @@
       <c r="R11">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="U11">
+        <v>0.8</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>0.87</v>
       </c>
@@ -953,17 +1694,17 @@
       <c r="E12">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
       <c r="H12">
-        <v>0.84628000000000003</v>
+        <f>_xlfn.STDEV.P(H5:H9)</f>
+        <v>1.3019769583214606E-2</v>
       </c>
       <c r="I12">
-        <v>0.81389999999999996</v>
+        <f t="shared" ref="I12:J12" si="1">_xlfn.STDEV.P(I5:I9)</f>
+        <v>1.7287290128877919E-2</v>
       </c>
       <c r="J12">
-        <v>0.83979999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.41414138215831564</v>
       </c>
       <c r="L12">
         <v>0.2</v>
@@ -986,8 +1727,17 @@
       <c r="R12">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="U12">
+        <v>0.8</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>0.87</v>
       </c>
@@ -997,17 +1747,17 @@
       <c r="C13">
         <v>7.9258143774300002E-3</v>
       </c>
-      <c r="G13">
-        <v>0.2</v>
-      </c>
       <c r="H13">
-        <v>0.85760000000000003</v>
+        <f>H12/H11</f>
+        <v>1.5331083772802278E-2</v>
       </c>
       <c r="I13">
-        <v>0.85429999999999995</v>
+        <f t="shared" ref="I13:J13" si="2">I12/I11</f>
+        <v>2.1147567011080566E-2</v>
       </c>
       <c r="J13">
-        <v>0.83660000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.80974289108240849</v>
       </c>
       <c r="L13">
         <v>0.2</v>
@@ -1030,8 +1780,17 @@
       <c r="R13">
         <v>0.46800000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>0.87</v>
       </c>
@@ -1045,13 +1804,13 @@
         <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.85440000000000005</v>
+        <v>0.8528</v>
       </c>
       <c r="I14">
-        <v>0.83660000000000001</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="J14">
-        <v>0.83979999999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="L14">
         <v>0.2</v>
@@ -1074,8 +1833,17 @@
       <c r="R14">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="U14">
+        <v>0.8</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>0.87</v>
       </c>
@@ -1092,16 +1860,16 @@
         <v>6.1400000000000003E-2</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H15">
-        <v>0.89</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="I15">
-        <v>0.83819999999999995</v>
+        <v>0.82850000000000001</v>
       </c>
       <c r="J15">
-        <v>0.87060000000000004</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="L15">
         <v>0.1</v>
@@ -1124,8 +1892,17 @@
       <c r="R15">
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="U15">
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>0.87</v>
       </c>
@@ -1142,16 +1919,16 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
-        <v>0.84470000000000001</v>
+        <v>0.84628000000000003</v>
       </c>
       <c r="I16">
-        <v>0.81879999999999997</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="J16">
-        <v>0.85109999999999997</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="L16">
         <v>0.1</v>
@@ -1174,8 +1951,17 @@
       <c r="R16">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="U16">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>0.87</v>
       </c>
@@ -1192,16 +1978,16 @@
         <v>2.5899999999999999E-2</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H17">
         <v>0.85760000000000003</v>
       </c>
       <c r="I17">
-        <v>0.82520000000000004</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="J17">
-        <v>6.4999999999999997E-3</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="L17">
         <v>0.1</v>
@@ -1224,8 +2010,17 @@
       <c r="R17">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="U17">
+        <v>0.8</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>0.87</v>
       </c>
@@ -1236,16 +2031,16 @@
         <v>7.9251862418799994E-3</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H18">
-        <v>0.85436999999999996</v>
+        <v>0.85440000000000005</v>
       </c>
       <c r="I18">
-        <v>0.83169999999999999</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="J18">
-        <v>0.84789999999999999</v>
+        <v>0.83979999999999999</v>
       </c>
       <c r="L18">
         <v>0.1</v>
@@ -1268,8 +2063,17 @@
       <c r="R18">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="U18">
+        <v>0.8</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>0.87</v>
       </c>
@@ -1279,18 +2083,6 @@
       <c r="C19">
         <v>7.4496750673599997E-3</v>
       </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.83819999999999995</v>
-      </c>
-      <c r="I19">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.75729999999999997</v>
-      </c>
       <c r="L19">
         <v>0.1</v>
       </c>
@@ -1312,8 +2104,17 @@
       <c r="R19">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="U19">
+        <v>0.8</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
         <v>0.85</v>
       </c>
@@ -1323,6 +2124,18 @@
       <c r="C20">
         <v>1.1095846983E-2</v>
       </c>
+      <c r="H20">
+        <f>AVERAGE(H14:H18)</f>
+        <v>0.85405599999999993</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ref="I20:J20" si="3">AVERAGE(I14:I18)</f>
+        <v>0.83203999999999989</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.6754</v>
+      </c>
       <c r="L20">
         <v>0.3</v>
       </c>
@@ -1332,8 +2145,17 @@
       <c r="N20">
         <v>7.8E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="U20">
+        <v>0.8</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
         <v>0.85</v>
       </c>
@@ -1352,8 +2174,17 @@
       <c r="N21">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="U21">
+        <v>0.8</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>0.85</v>
       </c>
@@ -1372,8 +2203,17 @@
       <c r="N22">
         <v>7.2400000000000006E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="U22">
+        <v>0.8</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>0.85</v>
       </c>
@@ -1383,6 +2223,18 @@
       <c r="C23">
         <v>1.01447743844E-2</v>
       </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.89</v>
+      </c>
+      <c r="I23">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="J23">
+        <v>0.87060000000000004</v>
+      </c>
       <c r="L23">
         <v>0.2</v>
       </c>
@@ -1392,8 +2244,17 @@
       <c r="N23">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="U23">
+        <v>0.8</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>0.85</v>
       </c>
@@ -1403,6 +2264,18 @@
       <c r="C24">
         <v>1.12543590827E-2</v>
       </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.85109999999999997</v>
+      </c>
       <c r="L24">
         <v>0.2</v>
       </c>
@@ -1412,8 +2285,17 @@
       <c r="N24">
         <v>5.67E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="U24">
+        <v>0.8</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
         <v>0.85</v>
       </c>
@@ -1423,6 +2305,18 @@
       <c r="C25">
         <v>1.01450424031E-2</v>
       </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="I25">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="J25">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="L25">
         <v>0.2</v>
       </c>
@@ -1432,8 +2326,17 @@
       <c r="N25">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="U25">
+        <v>0.4</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
         <v>0.85</v>
       </c>
@@ -1443,6 +2346,18 @@
       <c r="C26">
         <v>9.6694935404599992E-3</v>
       </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.85436999999999996</v>
+      </c>
+      <c r="I26">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.84789999999999999</v>
+      </c>
       <c r="L26">
         <v>0.1</v>
       </c>
@@ -1452,8 +2367,17 @@
       <c r="N26">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="U26">
+        <v>0.4</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
         <v>0.85</v>
       </c>
@@ -1463,6 +2387,18 @@
       <c r="C27">
         <v>1.0858365697099999E-2</v>
       </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.83819999999999995</v>
+      </c>
+      <c r="I27">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="J27">
+        <v>0.75729999999999997</v>
+      </c>
       <c r="L27">
         <v>0.1</v>
       </c>
@@ -1472,8 +2408,17 @@
       <c r="N27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="U27">
+        <v>0.4</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
         <v>0.85</v>
       </c>
@@ -1492,8 +2437,17 @@
       <c r="N28">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="U28">
+        <v>0.4</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W28">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>0.85</v>
       </c>
@@ -1503,8 +2457,29 @@
       <c r="C29">
         <v>1.1730205278599999E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="H29">
+        <f>AVERAGE(H23:H27)</f>
+        <v>0.8569739999999999</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:J29" si="4">AVERAGE(I23:I27)</f>
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.66667999999999994</v>
+      </c>
+      <c r="U29">
+        <v>0.4</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
         <v>0.85</v>
       </c>
@@ -1514,8 +2489,17 @@
       <c r="C30">
         <v>1.3631320335999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="U30">
+        <v>0.4</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
         <v>0.85</v>
       </c>
@@ -1525,8 +2509,17 @@
       <c r="C31">
         <v>1.42653352354E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="U31">
+        <v>0.4</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
         <v>0.85</v>
       </c>
@@ -1536,8 +2529,17 @@
       <c r="C32">
         <v>1.4423838960200001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="U32">
+        <v>0.4</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W32">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
         <v>0.85</v>
       </c>
@@ -1550,8 +2552,17 @@
       <c r="M33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="U33">
+        <v>0.4</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
         <v>0.85</v>
       </c>
@@ -1564,8 +2575,17 @@
       <c r="M34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="U34">
+        <v>0.4</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W34">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
         <v>0.8</v>
       </c>
@@ -1575,8 +2595,17 @@
       <c r="C35">
         <v>1.5851209975700001E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="U35">
+        <v>0.4</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
         <v>0.8</v>
       </c>
@@ -1586,8 +2615,17 @@
       <c r="C36">
         <v>1.8176054105500002E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="U36">
+        <v>0.4</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W36">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
         <v>0.8</v>
       </c>
@@ -1597,8 +2635,17 @@
       <c r="C37">
         <v>1.6326746275000002E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="U37">
+        <v>0.4</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W37">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
         <v>0.8</v>
       </c>
@@ -1608,8 +2655,17 @@
       <c r="C38">
         <v>1.8493078305000001E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="U38">
+        <v>0.4</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W38">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>0.8</v>
       </c>
@@ -1619,8 +2675,17 @@
       <c r="C39">
         <v>1.70136320406E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="U39">
+        <v>0.4</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
         <v>0.8</v>
       </c>
@@ -1630,8 +2695,17 @@
       <c r="C40">
         <v>1.7040500911500001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="U40">
+        <v>0.6</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W40">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>0.8</v>
       </c>
@@ -1641,8 +2715,17 @@
       <c r="C41">
         <v>1.7516049774100002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="U41">
+        <v>0.6</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
         <v>0.8</v>
       </c>
@@ -1652,8 +2735,17 @@
       <c r="C42">
         <v>1.75953079179E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="U42">
+        <v>0.6</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
         <v>0.8</v>
       </c>
@@ -1663,8 +2755,17 @@
       <c r="C43">
         <v>1.6802726480099998E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="U43">
+        <v>0.6</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>0.8</v>
       </c>
@@ -1674,8 +2775,17 @@
       <c r="C44">
         <v>1.58516287549E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="U44">
+        <v>0.6</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
         <v>0.8</v>
       </c>
@@ -1685,8 +2795,17 @@
       <c r="C45">
         <v>1.7593913457E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="U45">
+        <v>0.6</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W45">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>0.8</v>
       </c>
@@ -1696,8 +2815,17 @@
       <c r="C46">
         <v>1.5533365034099999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="U46">
+        <v>0.6</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
         <v>0.8</v>
       </c>
@@ -1707,8 +2835,17 @@
       <c r="C47">
         <v>1.4423838960200001E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="U47">
+        <v>0.6</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>0.8</v>
       </c>
@@ -1718,8 +2855,17 @@
       <c r="C48">
         <v>1.5850372483800002E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="U48">
+        <v>0.6</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>0.8</v>
       </c>
@@ -1728,6 +2874,70 @@
       </c>
       <c r="C49">
         <v>1.8069424631499999E-2</v>
+      </c>
+      <c r="U49">
+        <v>0.6</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="U50">
+        <v>0.6</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W50">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="U51">
+        <v>0.6</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W51">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="U52">
+        <v>0.6</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="U53">
+        <v>0.6</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="U54">
+        <v>0.6</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W54">
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1736,6 +2946,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
